--- a/medicine/Enfance/Pauline_Martin_(auteur_de_bande_dessinée)/Pauline_Martin_(auteur_de_bande_dessinée).xlsx
+++ b/medicine/Enfance/Pauline_Martin_(auteur_de_bande_dessinée)/Pauline_Martin_(auteur_de_bande_dessinée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pauline_Martin_(auteur_de_bande_dessin%C3%A9e)</t>
+          <t>Pauline_Martin_(auteur_de_bande_dessinée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pauline Martin, née à Paris le 17 juin 1975[1], est une artiste française, auteure et dessinatrice de bande dessinée et illustratrice d'ouvrages jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pauline Martin, née à Paris le 17 juin 1975, est une artiste française, auteure et dessinatrice de bande dessinée et illustratrice d'ouvrages jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pauline_Martin_(auteur_de_bande_dessin%C3%A9e)</t>
+          <t>Pauline_Martin_(auteur_de_bande_dessinée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle abandonne des études de médecine et entre à l'Atelier de Sèvres puis à l'Institut Supérieur des Arts Appliqués, où elle suit les cours de Killoffer et rencontre Dupuy et Berberian. Elle publie dans le journal Strips et participe au Comix 2000. 
 Chez Ego Comme X, elle publie deux récits autobiographiques, La boîte en 2000, et La meilleure du monde en 2001. Avec David B., elle publie Leonora chez Denoël Graphic, en 2004.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pauline_Martin_(auteur_de_bande_dessin%C3%A9e)</t>
+          <t>Pauline_Martin_(auteur_de_bande_dessinée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La boîte, éd. Ego Comme X, 2000
-La meilleure du monde, éd. Ego Comme X, 2001[2]
+La meilleure du monde, éd. Ego Comme X, 2001
 Leonora (avec David B.), éd. Denoël, coll. Denoël Graphic , 2004  (ISBN 2-207-25607-3)
  Sagesses et malices de Pierre le rusé, dit Hitar Pétar, Albena Ivanovitch-Lair, Mario Urbanet, illustrations de Pauline Martin, Albin Michel, 2005
 Ce que je sais de ma maman, Albin Michel, 2007
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pauline_Martin_(auteur_de_bande_dessin%C3%A9e)</t>
+          <t>Pauline_Martin_(auteur_de_bande_dessinée)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,9 +612,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2017 : Prix des Incorruptibles[3] pour Maman à l'école, avec Éric Veillé</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2017 : Prix des Incorruptibles pour Maman à l'école, avec Éric Veillé</t>
         </is>
       </c>
     </row>
